--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankAuthAct.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankAuthAct.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986A1B88-D237-436F-BD1D-128B5235B32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F353523F-DCF2-41A3-8DFC-0861A5777611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -928,7 +928,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="122.6640625" defaultRowHeight="16.2"/>
@@ -1204,7 +1204,10 @@
         <v>25</v>
       </c>
       <c r="E16" s="19">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="F16" s="16">
+        <v>2</v>
       </c>
       <c r="G16" s="25" t="s">
         <v>66</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankAuthAct.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankAuthAct.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F353523F-DCF2-41A3-8DFC-0861A5777611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7683793E-FBB3-4306-BC20-625357C5314F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -927,19 +927,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="122.6640625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="122.6328125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="101.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="122.6640625" style="7"/>
+    <col min="1" max="1" width="5.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="101.90625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="122.6328125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1091,7 +1091,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="64.8">
+    <row r="11" spans="1:7" ht="68">
       <c r="A11" s="19">
         <v>3</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="48.6">
+    <row r="13" spans="1:7" ht="51">
       <c r="A13" s="19">
         <v>7</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="97.2">
+    <row r="15" spans="1:7" ht="102">
       <c r="A15" s="19">
         <v>9</v>
       </c>
@@ -1327,11 +1327,11 @@
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankAuthAct.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankAuthAct.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7683793E-FBB3-4306-BC20-625357C5314F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D35AF35-9E3E-4FC6-B74F-360768B1F3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -927,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="122.6328125" defaultRowHeight="17"/>
@@ -1064,7 +1064,7 @@
       <c r="C9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="23">
@@ -1081,7 +1081,7 @@
       <c r="C10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="23">
@@ -1101,7 +1101,7 @@
       <c r="C11" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="21" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="23">
@@ -1114,7 +1114,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>17</v>
@@ -1122,7 +1122,7 @@
       <c r="C12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="27" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="23">
@@ -1131,7 +1131,7 @@
     </row>
     <row r="13" spans="1:7" ht="51">
       <c r="A13" s="19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>67</v>
@@ -1139,7 +1139,7 @@
       <c r="C13" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="21" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="23">
@@ -1152,7 +1152,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>36</v>
@@ -1160,7 +1160,7 @@
       <c r="C14" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="27" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="28">
@@ -1172,7 +1172,7 @@
     </row>
     <row r="15" spans="1:7" ht="102">
       <c r="A15" s="19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>62</v>
@@ -1180,7 +1180,7 @@
       <c r="C15" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="27" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="19">
@@ -1192,7 +1192,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>18</v>
@@ -1200,7 +1200,7 @@
       <c r="C16" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="21" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="19">
@@ -1215,7 +1215,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="19">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>27</v>
@@ -1223,7 +1223,7 @@
       <c r="C17" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="21" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="23">
@@ -1236,7 +1236,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>43</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="19">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B19" s="26" t="s">
         <v>46</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="19">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>49</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="19">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>51</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankAuthAct.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankAuthAct.xlsx
@@ -1,69 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D35AF35-9E3E-4FC6-B74F-360768B1F3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320DA4E1-B2AC-41BE-8D56-6D5D23A8D113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
+    <sheet name="JsonField" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>讀取Key條件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>其他ORDER條件</t>
   </si>
   <si>
     <t>Uni</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PrimaryKey</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>FunNm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ForeignKey1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>欄位名稱</t>
@@ -85,146 +86,146 @@
   </si>
   <si>
     <t>RepayBank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>LimitAmt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>戶號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>扣款銀行</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>扣款帳號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>每筆扣款限額</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AcctSeq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>額度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>銀扣授權帳號檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>BankAuthAct</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AuthType</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CustNo,FacmNo,AuthType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>兩個額度共用同一扣款帳號則ACH授權記錄檔只有第一個額度送出授權，但授權帳號檔會寫兩筆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>FacmNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RepayAcct</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>authCheck</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CustNo,FacmNo,RepayAcct</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CustNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>FacmNo ASC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CustNo = , AND RepayAcct = , AND FacmNo &gt;=, AND FacmNo &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>建檔日期時間</t>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CreateEmpNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>建檔人員</t>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>最後更新日期時間</t>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>最後更新人員</t>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>KeyID</t>
@@ -234,71 +235,71 @@
   </si>
   <si>
     <t xml:space="preserve">CustNo = , AND FacmNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>facmNoEq</t>
   </si>
   <si>
     <t xml:space="preserve">CustNo = , AND RepayAcct = , AND RepayBank = , AND FacmNo &gt;=, AND FacmNo &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>findAcctNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>變更扣款帳號時授權成功才會更新</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>授權類別</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Status</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>狀態碼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>帳號碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>該戶號之第一個扣款帳號為空白，其後依序01起編(郵局用)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ACH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PostDepCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>findCustNoEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CustNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CdCode.AuthCode
 00:期款 (ACH)
 01:期款 (郵局)
 02:火險 (郵局)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CdCode.PostDepCode
 P:存簿
 G:劃撥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>空白:未授權
@@ -307,19 +308,98 @@
 2:取消授權       授權提回更新 
 8:授權失敗
 9:已送出授權</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RelationCode</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>與借款人關係</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>RelAcctName</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳戶戶名</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>身分證字號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三人身分證字號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>RelAcctBirthday</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decimald</t>
+  </si>
+  <si>
+    <t>RelAcctGender</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>OtherFields</t>
+  </si>
+  <si>
+    <t>其他欄位</t>
+  </si>
+  <si>
+    <t>第三人帳戶戶名</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三人性別</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三人出生日期</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT  JSON_VALUE  ("OtherFields",  '$RelAcctName') AS RelAcctName</t>
+  </si>
+  <si>
+    <t>CustId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -402,8 +482,38 @@
       <charset val="136"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +523,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,118 +594,180 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{47357677-CB58-48D3-8FC9-FF507649CAFB}"/>
+    <cellStyle name="一般 3" xfId="3" xr:uid="{5E652BA6-5716-4FBB-A5A0-D08419B975D3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -605,9 +783,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -645,9 +823,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -680,26 +858,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -732,26 +893,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -925,28 +1069,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="122.6328125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="122.6640625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="101.90625" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="122.6328125" style="7"/>
+    <col min="1" max="1" width="5.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="101.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="122.6640625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="3" t="s">
         <v>31</v>
       </c>
@@ -958,80 +1102,80 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1">
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1050,257 +1194,277 @@
       <c r="F8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="21">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <v>2</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="21">
         <v>3</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="68">
-      <c r="A11" s="19">
+    <row r="11" spans="1:7" ht="64.8">
+      <c r="A11" s="17">
         <v>3</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="21">
         <v>2</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="19">
+      <c r="A12" s="17">
         <v>4</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="51">
-      <c r="A13" s="19">
+    <row r="13" spans="1:7" ht="48.6">
+      <c r="A13" s="17">
         <v>5</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="21">
         <v>1</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24" t="s">
+      <c r="F13" s="21"/>
+      <c r="G13" s="22" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="19">
+      <c r="A14" s="17">
         <v>6</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="26">
         <v>14</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="102">
-      <c r="A15" s="19">
+    <row r="15" spans="1:7" ht="97.2">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="17">
         <v>1</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="22" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="19">
+      <c r="A16" s="17">
         <v>8</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="17">
         <v>10</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="14">
         <v>2</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="23" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="19">
+    <row r="17" spans="1:8">
+      <c r="A17" s="17">
         <v>9</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="21">
         <v>2</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24" t="s">
+      <c r="F17" s="21"/>
+      <c r="G17" s="22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="19">
+    <row r="18" spans="1:8">
+      <c r="A18" s="17">
         <v>10</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="G18" s="27"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="19">
+      <c r="E18" s="21"/>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="17">
         <v>11</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="21">
         <v>6</v>
       </c>
-      <c r="G19" s="27"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="19">
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="17">
         <v>12</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="G20" s="27"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="19">
+      <c r="E20" s="21"/>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="17">
         <v>13</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="21">
         <v>6</v>
       </c>
-      <c r="G21" s="27"/>
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" spans="1:8" s="34" customFormat="1">
+      <c r="A22" s="40">
+        <v>14</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="37">
+        <v>2000</v>
+      </c>
+      <c r="F22" s="37"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1312,7 +1476,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1327,11 +1491,11 @@
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1388,8 +1552,152 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31A17A3-BF83-4955-A2EB-237A972BB51C}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="42"/>
+    <col min="7" max="7" width="20.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="33">
+        <v>1</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="45">
+        <v>2</v>
+      </c>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="33">
+        <v>2</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="47">
+        <v>100</v>
+      </c>
+      <c r="F3" s="45"/>
+      <c r="G3" s="48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="33">
+        <v>3</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="45">
+        <v>10</v>
+      </c>
+      <c r="F4" s="45"/>
+      <c r="G4" s="44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="33">
+        <v>4</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="47">
+        <v>8</v>
+      </c>
+      <c r="F5" s="45"/>
+      <c r="G5" s="44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="33">
+        <v>5</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="45">
+        <v>1</v>
+      </c>
+      <c r="F6" s="45"/>
+      <c r="G6" s="48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="D9" s="50"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="D11" s="50"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankAuthAct.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankAuthAct.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320DA4E1-B2AC-41BE-8D56-6D5D23A8D113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F210A71-BB6F-4BA3-B2A5-F8EA79D7F292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -195,10 +195,6 @@
     <t>建檔日期時間</t>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -381,12 +377,15 @@
   <si>
     <t>CustId</t>
   </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -608,7 +607,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,6 +689,63 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -701,66 +757,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1071,11 +1067,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="122.6640625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="122.6640625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.21875" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.109375" style="14" bestFit="1" customWidth="1"/>
@@ -1086,11 +1082,11 @@
     <col min="8" max="16384" width="122.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="47"/>
       <c r="C1" s="3" t="s">
         <v>31</v>
       </c>
@@ -1101,11 +1097,11 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1114,11 +1110,11 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="11" t="s">
         <v>33</v>
       </c>
@@ -1129,22 +1125,22 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="5"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="11" t="s">
         <v>38</v>
       </c>
@@ -1153,29 +1149,29 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="3"/>
       <c r="D6" s="12"/>
       <c r="E6" s="5"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="3"/>
       <c r="D7" s="12"/>
       <c r="E7" s="5"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1198,7 +1194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>1</v>
       </c>
@@ -1215,7 +1211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>2</v>
       </c>
@@ -1235,7 +1231,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="64.8">
+    <row r="11" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>3</v>
       </c>
@@ -1243,7 +1239,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>28</v>
@@ -1253,10 +1249,10 @@
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>4</v>
       </c>
@@ -1273,15 +1269,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="48.6">
+    <row r="13" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>42</v>
@@ -1291,10 +1287,10 @@
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>6</v>
       </c>
@@ -1311,18 +1307,18 @@
         <v>14</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="97.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>7</v>
       </c>
       <c r="B15" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>62</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>63</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>23</v>
@@ -1331,10 +1327,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>8</v>
       </c>
@@ -1354,10 +1350,10 @@
         <v>2</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>9</v>
       </c>
@@ -1365,7 +1361,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>28</v>
@@ -1375,10 +1371,10 @@
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>10</v>
       </c>
@@ -1389,82 +1385,82 @@
         <v>44</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="E18" s="21"/>
       <c r="G18" s="25"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>11</v>
       </c>
       <c r="B19" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="D19" s="24" t="s">
         <v>47</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>48</v>
       </c>
       <c r="E19" s="21">
         <v>6</v>
       </c>
       <c r="G19" s="25"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>12</v>
       </c>
       <c r="B20" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>50</v>
-      </c>
       <c r="D20" s="24" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="E20" s="21"/>
       <c r="G20" s="25"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>13</v>
       </c>
       <c r="B21" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="D21" s="24" t="s">
         <v>52</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>53</v>
       </c>
       <c r="E21" s="21">
         <v>6</v>
       </c>
       <c r="G21" s="25"/>
     </row>
-    <row r="22" spans="1:8" s="34" customFormat="1">
-      <c r="A22" s="40">
+    <row r="22" spans="1:8" s="30" customFormat="1" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="36">
         <v>14</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="33">
         <v>2000</v>
       </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="39"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1491,7 +1487,7 @@
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="70.77734375" style="1" customWidth="1"/>
@@ -1499,7 +1495,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1510,7 +1506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -1521,31 +1517,31 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>40</v>
@@ -1560,141 +1556,135 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31A17A3-BF83-4955-A2EB-237A972BB51C}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.21875" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" customWidth="1"/>
     <col min="5" max="5" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="42"/>
+    <col min="6" max="6" width="8.88671875" style="38"/>
     <col min="7" max="7" width="20.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="41">
+        <v>2</v>
+      </c>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="29">
+        <v>2</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="43">
+        <v>100</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="29">
+        <v>3</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="31"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="33">
+      <c r="C4" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="41">
+        <v>10</v>
+      </c>
+      <c r="F4" s="41"/>
+      <c r="G4" s="40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="29">
+        <v>4</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="43">
+        <v>8</v>
+      </c>
+      <c r="F5" s="41"/>
+      <c r="G5" s="40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="29">
+        <v>5</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="41">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="45">
-        <v>2</v>
-      </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="46"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="33">
-        <v>2</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="47">
-        <v>100</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="48" t="s">
+      <c r="F6" s="41"/>
+      <c r="G6" s="44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="33">
-        <v>3</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="45">
-        <v>10</v>
-      </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="33">
-        <v>4</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="47">
-        <v>8</v>
-      </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="44" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="33">
-        <v>5</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="45">
-        <v>1</v>
-      </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="48" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="D9" s="50"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="D11" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
